--- a/japanese/aws.xlsx
+++ b/japanese/aws.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="137">
   <si>
     <t>wq</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,9 +91,6 @@
     <t>粘贴复制或剪切的内容</t>
   </si>
   <si>
-    <t>ssh -i /c/Users/Administrator/Downloads/yungxeon.pem admin@ec2-18-183-183-6.ap-northeast-1.compute.amazonaws.com</t>
-  </si>
-  <si>
     <t>最高权限</t>
   </si>
   <si>
@@ -154,10 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18.183.183.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>apt upgrade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,21 +168,8 @@
     <t>检查版本</t>
   </si>
   <si>
-    <t>命令列出了正在运行的进程</t>
-  </si>
-  <si>
-    <t>ps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemctl stop nginx</t>
-  </si>
-  <si>
     <t>停止</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ps -ef | grep nginx</t>
   </si>
   <si>
     <t>使用 grep 搜索 nginx</t>
@@ -260,13 +240,764 @@
       <t>。reopen 信号指示</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>whereis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令可以查找文件或目录的路径。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最常见的 Nginx 配置包括以下几个方面：</t>
+  </si>
+  <si>
+    <r>
+      <t>全局配置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>：包括服务器名称、端口、日志文件路径等。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>虚拟主机配置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>：用于定义不同的网站或应用程序。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>负载均衡配置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>：用于将请求分发到多个后端服务器。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>安全配置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>：用于防止攻击和恶意行为。</t>
+    </r>
+  </si>
+  <si>
+    <t>以下是一个最简单的 Nginx 配置示例：</t>
+  </si>
+  <si>
+    <t>server {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  listen 80;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  server_name localhost;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  root /usr/share/nginx/html;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  index index.html;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">这个配置将启动一个监听 80 端口的服务器，并将网站根目录设置为 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444746"/>
+        <rFont val="Google Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/usr/share/nginx/html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">。当用户访问 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444746"/>
+        <rFont val="Google Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>localhost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 时，将会显示 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444746"/>
+        <rFont val="Google Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/usr/share/nginx/html/index.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 文件的内容。</t>
+    </r>
+  </si>
+  <si>
+    <t>全局配置</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">全局配置位于 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444746"/>
+        <rFont val="Google Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>nginx.conf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 文件的顶部，用于定义 Nginx 服务器的一般设置。</t>
+    </r>
+  </si>
+  <si>
+    <t>以下是一些常用的全局配置选项：</t>
+  </si>
+  <si>
+    <r>
+      <t>server_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 服务器名称。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>listen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 监听端口。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>root</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 网站根目录。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 默认首页文件。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>error_log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 错误日志文件路径。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>access_log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 访问日志文件路径。</t>
+    </r>
+  </si>
+  <si>
+    <t>虚拟主机配置</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">虚拟主机配置用于定义不同的网站或应用程序。每个虚拟主机都由一个 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444746"/>
+        <rFont val="Google Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 块定义。</t>
+    </r>
+  </si>
+  <si>
+    <t>以下是一个简单的虚拟主机配置示例：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  server_name example.com;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  root /var/www/example.com;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">这个配置将启动一个监听 80 端口的服务器，并将网站根目录设置为 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444746"/>
+        <rFont val="Google Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/var/www/example.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">。当用户访问 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444746"/>
+        <rFont val="Google Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>example.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 时，将会显示 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444746"/>
+        <rFont val="Google Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>/var/www/example.com/index.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 文件的内容。</t>
+    </r>
+  </si>
+  <si>
+    <t>负载均衡配置</t>
+  </si>
+  <si>
+    <t>负载均衡配置用于将请求分发到多个后端服务器。</t>
+  </si>
+  <si>
+    <t>以下是一个简单的负载均衡配置示例：</t>
+  </si>
+  <si>
+    <t>upstream backend {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  server server1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  server server2;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  location / {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    proxy_pass http://backend;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">这个配置将启动一个监听 80 端口的服务器，并将所有请求转发到 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444746"/>
+        <rFont val="Google Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>backend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 负载均衡器。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444746"/>
+        <rFont val="Google Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>backend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 负载均衡器将根据某种算法将请求分发到 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444746"/>
+        <rFont val="Google Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>server1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 和 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444746"/>
+        <rFont val="Google Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>server2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 两个后端服务器。</t>
+    </r>
+  </si>
+  <si>
+    <t>安全配置</t>
+  </si>
+  <si>
+    <t>安全配置用于防止攻击和恶意行为。</t>
+  </si>
+  <si>
+    <t>以下是一些常用的安全配置选项：</t>
+  </si>
+  <si>
+    <r>
+      <t>server_tokens</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 是否显示 Nginx 版本号。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>server_name_in_redirect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 是否在重定向中包含服务器名称。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>client_max_body_size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 允许的最大请求体大小。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>limit_req_zone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 限制请求频率。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>limit_conn_zone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 限制连接数。</t>
+    </r>
+  </si>
+  <si>
+    <t>其他配置</t>
+  </si>
+  <si>
+    <t>除了上述常见配置之外，Nginx 还支持许多其他配置选项。您可以根据自己的需求进行调整。</t>
+  </si>
+  <si>
+    <t>以下是一些其他常用的配置选项：</t>
+  </si>
+  <si>
+    <r>
+      <t>gzip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 启用 Gzip 压缩。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ssl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 启用 SSL 加密。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rewrite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 重写请求 URL。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>location</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 定义 URL 映射规则。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fastcgi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 与 FastCGI 服务器通信。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uwsgi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 与 uWSGI 服务器通信。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">您可以使用 Nginx 的 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF444746"/>
+        <rFont val="Google Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>nginx -t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 命令来测试配置文件的语法是否正确。</t>
+    </r>
+  </si>
+  <si>
+    <t>apt-get remove nginx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemctl stop nginx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ps -ef | grep nginx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cloudns.net/</t>
+  </si>
+  <si>
+    <t>iraason@gmail.com</t>
+  </si>
+  <si>
+    <t>admin123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yzq.cloudns.ch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://iraason.cloudns.net/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 项目官网: https://1panel.cn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 项目文档: https://1panel.cn/docs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 代码仓库: https://github.com/1Panel-dev/1Panel</t>
+  </si>
+  <si>
+    <t>1panel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 面板用户: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql_fsew2k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssh -i /c/Users/Administrator/Downloads/yungxeon.pem admin@ec2-54-178-225-64.ap-northeast-1.compute.amazonaws.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54.178.225.64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请用浏览器访问面板:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 内网地址: http://172.31.35.51:81/2494680623</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 外网地址: http://54.178.225.64:81/2494680623</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yzq.cloudns.ch:81/2494680623</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f95a78a98d</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 面板密码: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b03cb023f6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,13 +1039,69 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Google Sans Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444746"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444746"/>
+      <name val="Google Sans Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF16191F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -329,13 +1116,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -637,57 +1450,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F9"/>
+  <dimension ref="B1:I23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
   <sheetData>
-    <row r="3" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+    <row r="1" spans="2:9" ht="17.25" customHeight="1">
+      <c r="B1" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+    <row r="2" spans="2:9" ht="17.25" customHeight="1">
+      <c r="B2" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="17.25" customHeight="1">
+      <c r="F3" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="17.25" customHeight="1">
+      <c r="B4" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="17.25" customHeight="1">
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="17.25" customHeight="1">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+      <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="7" spans="2:9" ht="17.25" customHeight="1">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
+    </row>
+    <row r="8" spans="2:9" ht="17.25" customHeight="1">
+      <c r="B8" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="17.25" customHeight="1">
+      <c r="B9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="17.25" customHeight="1">
+      <c r="B11" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="17.25" customHeight="1">
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="17.25" customHeight="1">
+      <c r="B13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="17.25" customHeight="1">
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="17.25" customHeight="1">
+      <c r="B15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="17.25" customHeight="1">
+      <c r="B16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="17.25" customHeight="1">
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="2:7" ht="17.25" customHeight="1">
+      <c r="G18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="17.25" customHeight="1">
+      <c r="G19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="17.25" customHeight="1">
+      <c r="B20" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="17.25" customHeight="1">
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+    </row>
+    <row r="23" spans="2:7" ht="17.25" customHeight="1">
+      <c r="G23" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -699,14 +1617,14 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.375" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.375" style="1"/>
     <col min="2" max="2" width="7.75" style="1" customWidth="1"/>
     <col min="3" max="16384" width="6.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" ht="17.25" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,7 +1632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="17.25" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -722,7 +1640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" ht="17.25" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -730,7 +1648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" ht="17.25" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -738,10 +1656,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" ht="17.25" customHeight="1">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" ht="17.25" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
@@ -749,10 +1667,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" ht="17.25" customHeight="1">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" ht="17.25" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
@@ -760,7 +1678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" ht="17.25" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
@@ -768,7 +1686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" ht="17.25" customHeight="1">
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
@@ -776,7 +1694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" ht="17.25" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
@@ -793,110 +1711,109 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G15"/>
+  <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
     <col min="3" max="3" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:7" ht="14.25" customHeight="1">
+      <c r="F2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="14.25" customHeight="1">
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
+    <row r="9" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="3" t="s">
+    </row>
+    <row r="15" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="3" t="s">
-        <v>34</v>
+    </row>
+    <row r="17" spans="2:2" ht="14.25" customHeight="1">
+      <c r="B17" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -907,69 +1824,397 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C11"/>
+  <dimension ref="B2:C78"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:I15"/>
-    </sheetView>
+    <sheetView showGridLines="0" topLeftCell="A67" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="3.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3">
       <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="C5" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C5" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
+    <row r="13" spans="2:3">
+      <c r="B13" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B8" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="3" t="s">
+    <row r="16" spans="2:3">
+      <c r="B16" s="10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B11" s="3" t="s">
-        <v>55</v>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="8"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="9" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>